--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H2">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I2">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J2">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N2">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P2">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q2">
-        <v>31.98912213876681</v>
+        <v>0.0463546539365</v>
       </c>
       <c r="R2">
-        <v>31.98912213876681</v>
+        <v>0.185418615746</v>
       </c>
       <c r="S2">
-        <v>0.2876063860983342</v>
+        <v>0.0003171573162510809</v>
       </c>
       <c r="T2">
-        <v>0.2876063860983342</v>
+        <v>0.0001706042911741023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H3">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I3">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J3">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N3">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O3">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P3">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q3">
-        <v>0.3495247655973891</v>
+        <v>35.274882946821</v>
       </c>
       <c r="R3">
-        <v>0.3495247655973891</v>
+        <v>211.649297680926</v>
       </c>
       <c r="S3">
-        <v>0.003142491821102775</v>
+        <v>0.2413498161761812</v>
       </c>
       <c r="T3">
-        <v>0.003142491821102775</v>
+        <v>0.1947392297320067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,805 +652,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H4">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I4">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J4">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N4">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O4">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P4">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q4">
-        <v>1.702060927339818</v>
+        <v>0.1371150656796667</v>
       </c>
       <c r="R4">
-        <v>1.702060927339818</v>
+        <v>0.822690394078</v>
       </c>
       <c r="S4">
-        <v>0.01530281419126982</v>
+        <v>0.0009381376529770995</v>
       </c>
       <c r="T4">
-        <v>0.01530281419126982</v>
+        <v>0.0007569601950307298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.11414876753105</v>
+        <v>3.137477</v>
       </c>
       <c r="H5">
-        <v>2.11414876753105</v>
+        <v>6.274954</v>
       </c>
       <c r="I5">
-        <v>0.2093008924005743</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J5">
-        <v>0.2093008924005743</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N5">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O5">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P5">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q5">
-        <v>21.87653910546909</v>
+        <v>0.1005143048233333</v>
       </c>
       <c r="R5">
-        <v>21.87653910546909</v>
+        <v>0.6030858289400001</v>
       </c>
       <c r="S5">
-        <v>0.1966866213198747</v>
+        <v>0.0006877162152106984</v>
       </c>
       <c r="T5">
-        <v>0.1966866213198747</v>
+        <v>0.0005549012969895081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.11414876753105</v>
+        <v>3.137477</v>
       </c>
       <c r="H6">
-        <v>2.11414876753105</v>
+        <v>6.274954</v>
       </c>
       <c r="I6">
-        <v>0.2093008924005743</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J6">
-        <v>0.2093008924005743</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N6">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O6">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P6">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q6">
-        <v>0.2390310109090092</v>
+        <v>0.357691202862</v>
       </c>
       <c r="R6">
-        <v>0.2390310109090092</v>
+        <v>2.146147217172</v>
       </c>
       <c r="S6">
-        <v>0.002149069452883143</v>
+        <v>0.002447313749806812</v>
       </c>
       <c r="T6">
-        <v>0.002149069452883143</v>
+        <v>0.001974677263487229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.11414876753105</v>
+        <v>3.137477</v>
       </c>
       <c r="H7">
-        <v>2.11414876753105</v>
+        <v>6.274954</v>
       </c>
       <c r="I7">
-        <v>0.2093008924005743</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J7">
-        <v>0.2093008924005743</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N7">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O7">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P7">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q7">
-        <v>1.163995756911257</v>
+        <v>4.392472506215499</v>
       </c>
       <c r="R7">
-        <v>1.163995756911257</v>
+        <v>17.569890024862</v>
       </c>
       <c r="S7">
-        <v>0.01046520162781645</v>
+        <v>0.03005318071592864</v>
       </c>
       <c r="T7">
-        <v>0.01046520162781645</v>
+        <v>0.01616611482961725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.26925591116813</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H8">
-        <v>1.26925591116813</v>
+        <v>6.92846</v>
       </c>
       <c r="I8">
-        <v>0.1256564339142667</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J8">
-        <v>0.1256564339142667</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N8">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O8">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P8">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q8">
-        <v>13.13385652039248</v>
+        <v>0.03412151075666667</v>
       </c>
       <c r="R8">
-        <v>13.13385652039248</v>
+        <v>0.20472906454</v>
       </c>
       <c r="S8">
-        <v>0.1180832969713292</v>
+        <v>0.0002334584741553978</v>
       </c>
       <c r="T8">
-        <v>0.1180832969713292</v>
+        <v>0.000188371899973788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.26925591116813</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H9">
-        <v>1.26925591116813</v>
+        <v>6.92846</v>
       </c>
       <c r="I9">
-        <v>0.1256564339142667</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J9">
-        <v>0.1256564339142667</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N9">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O9">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P9">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q9">
-        <v>0.1435052860083546</v>
+        <v>25.96572718586</v>
       </c>
       <c r="R9">
-        <v>0.1435052860083546</v>
+        <v>233.69154467274</v>
       </c>
       <c r="S9">
-        <v>0.001290220985616012</v>
+        <v>0.1776568186671461</v>
       </c>
       <c r="T9">
-        <v>0.001290220985616012</v>
+        <v>0.215020375229686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.26925591116813</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H10">
-        <v>1.26925591116813</v>
+        <v>6.92846</v>
       </c>
       <c r="I10">
-        <v>0.1256564339142667</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J10">
-        <v>0.1256564339142667</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N10">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O10">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P10">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q10">
-        <v>0.6988195522113539</v>
+        <v>0.1009299561355556</v>
       </c>
       <c r="R10">
-        <v>0.6988195522113539</v>
+        <v>0.9083696052200001</v>
       </c>
       <c r="S10">
-        <v>0.006282915957321475</v>
+        <v>0.0006905600904958258</v>
       </c>
       <c r="T10">
-        <v>0.006282915957321475</v>
+        <v>0.0008357939250013005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.95387430571397</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H11">
-        <v>1.95387430571397</v>
+        <v>6.92846</v>
       </c>
       <c r="I11">
-        <v>0.1934337082163166</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J11">
-        <v>0.1934337082163166</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N11">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O11">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P11">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q11">
-        <v>20.2180699450211</v>
+        <v>0.07398825451111112</v>
       </c>
       <c r="R11">
-        <v>20.2180699450211</v>
+        <v>0.6658942906</v>
       </c>
       <c r="S11">
-        <v>0.1817757300605633</v>
+        <v>0.0005062256805323424</v>
       </c>
       <c r="T11">
-        <v>0.1817757300605633</v>
+        <v>0.0006126915735382168</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.95387430571397</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H12">
-        <v>1.95387430571397</v>
+        <v>6.92846</v>
       </c>
       <c r="I12">
-        <v>0.1934337082163166</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J12">
-        <v>0.1934337082163166</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N12">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O12">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P12">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q12">
-        <v>0.2209099745754243</v>
+        <v>0.2632953369200001</v>
       </c>
       <c r="R12">
-        <v>0.2209099745754243</v>
+        <v>2.36965803228</v>
       </c>
       <c r="S12">
-        <v>0.001986147639972779</v>
+        <v>0.001801459731602442</v>
       </c>
       <c r="T12">
-        <v>0.001986147639972779</v>
+        <v>0.002180330315247048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.95387430571397</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H13">
-        <v>1.95387430571397</v>
+        <v>6.92846</v>
       </c>
       <c r="I13">
-        <v>0.1934337082163166</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J13">
-        <v>0.1934337082163166</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N13">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O13">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P13">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q13">
-        <v>1.075752774032533</v>
+        <v>3.233284797563333</v>
       </c>
       <c r="R13">
-        <v>1.075752774032533</v>
+        <v>19.39970878538</v>
       </c>
       <c r="S13">
-        <v>0.009671830515780513</v>
+        <v>0.02212204907139112</v>
       </c>
       <c r="T13">
-        <v>0.009671830515780513</v>
+        <v>0.01784973721758118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.67229437682485</v>
+        <v>0.5867</v>
       </c>
       <c r="H14">
-        <v>1.67229437682485</v>
+        <v>1.7601</v>
       </c>
       <c r="I14">
-        <v>0.1655572733581356</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J14">
-        <v>0.1655572733581356</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N14">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O14">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P14">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q14">
-        <v>17.30437038883906</v>
+        <v>0.00866819915</v>
       </c>
       <c r="R14">
-        <v>17.30437038883906</v>
+        <v>0.0520091949</v>
       </c>
       <c r="S14">
-        <v>0.1555793688133039</v>
+        <v>5.930758932878526E-05</v>
       </c>
       <c r="T14">
-        <v>0.1555793688133039</v>
+        <v>4.785383492779988E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.67229437682485</v>
+        <v>0.5867</v>
       </c>
       <c r="H15">
-        <v>1.67229437682485</v>
+        <v>1.7601</v>
       </c>
       <c r="I15">
-        <v>0.1655572733581356</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J15">
-        <v>0.1655572733581356</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N15">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O15">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P15">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q15">
-        <v>0.1890738350909474</v>
+        <v>6.5963109291</v>
       </c>
       <c r="R15">
-        <v>0.1890738350909474</v>
+        <v>59.3667983619</v>
       </c>
       <c r="S15">
-        <v>0.001699916683564112</v>
+        <v>0.0451317849184442</v>
       </c>
       <c r="T15">
-        <v>0.001699916683564112</v>
+        <v>0.05462359058748557</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5867</v>
+      </c>
+      <c r="H16">
+        <v>1.7601</v>
+      </c>
+      <c r="I16">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J16">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.131107</v>
+      </c>
+      <c r="O16">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P16">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q16">
+        <v>0.02564015896666667</v>
+      </c>
+      <c r="R16">
+        <v>0.2307614307</v>
+      </c>
+      <c r="S16">
+        <v>0.0001754292895220154</v>
+      </c>
+      <c r="T16">
+        <v>0.0002123243675210349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5867</v>
+      </c>
+      <c r="H17">
+        <v>1.7601</v>
+      </c>
+      <c r="I17">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J17">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.09611</v>
+      </c>
+      <c r="O17">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P17">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q17">
+        <v>0.01879591233333333</v>
+      </c>
+      <c r="R17">
+        <v>0.169163211</v>
+      </c>
+      <c r="S17">
+        <v>0.0001286011350725812</v>
+      </c>
+      <c r="T17">
+        <v>0.0001556476386649581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5867</v>
+      </c>
+      <c r="H18">
+        <v>1.7601</v>
+      </c>
+      <c r="I18">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J18">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.114006</v>
+      </c>
+      <c r="N18">
+        <v>0.342018</v>
+      </c>
+      <c r="O18">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P18">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q18">
+        <v>0.0668873202</v>
+      </c>
+      <c r="R18">
+        <v>0.6019858818000001</v>
+      </c>
+      <c r="S18">
+        <v>0.0004576412757803983</v>
+      </c>
+      <c r="T18">
+        <v>0.0005538892319312416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5867</v>
+      </c>
+      <c r="H19">
+        <v>1.7601</v>
+      </c>
+      <c r="I19">
+        <v>0.05157263046566488</v>
+      </c>
+      <c r="J19">
+        <v>0.06012783750117986</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.4000015</v>
+      </c>
+      <c r="N19">
+        <v>2.800003</v>
+      </c>
+      <c r="O19">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P19">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q19">
+        <v>0.82138088005</v>
+      </c>
+      <c r="R19">
+        <v>4.9282852803</v>
+      </c>
+      <c r="S19">
+        <v>0.005619866257516895</v>
+      </c>
+      <c r="T19">
+        <v>0.004534531840649241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.562099</v>
+      </c>
+      <c r="I20">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J20">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0147745</v>
+      </c>
+      <c r="N20">
+        <v>0.029549</v>
+      </c>
+      <c r="O20">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P20">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q20">
+        <v>0.02246757722516667</v>
+      </c>
+      <c r="R20">
+        <v>0.134805463351</v>
+      </c>
+      <c r="S20">
+        <v>0.0001537225691547423</v>
+      </c>
+      <c r="T20">
+        <v>0.000124034959644498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.562099</v>
+      </c>
+      <c r="I21">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J21">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.243073</v>
+      </c>
+      <c r="N21">
+        <v>33.729219</v>
+      </c>
+      <c r="O21">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P21">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q21">
+        <v>17.097337363409</v>
+      </c>
+      <c r="R21">
+        <v>153.876036270681</v>
+      </c>
+      <c r="S21">
+        <v>0.1169795300520705</v>
+      </c>
+      <c r="T21">
+        <v>0.1415818578464731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.562099</v>
+      </c>
+      <c r="I22">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J22">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.131107</v>
+      </c>
+      <c r="O22">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P22">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q22">
+        <v>0.06645812373255555</v>
+      </c>
+      <c r="R22">
+        <v>0.598123113593</v>
+      </c>
+      <c r="S22">
+        <v>0.0004547047249014811</v>
+      </c>
+      <c r="T22">
+        <v>0.0005503350859288367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.562099</v>
+      </c>
+      <c r="I23">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J23">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.09611</v>
+      </c>
+      <c r="O23">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P23">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q23">
+        <v>0.04871814832111111</v>
+      </c>
+      <c r="R23">
+        <v>0.43846333489</v>
+      </c>
+      <c r="S23">
+        <v>0.0003333282823211678</v>
+      </c>
+      <c r="T23">
+        <v>0.0004034315872426376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="H16">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="I16">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="J16">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.550574195528632</v>
-      </c>
-      <c r="N16">
-        <v>0.550574195528632</v>
-      </c>
-      <c r="O16">
-        <v>0.05000075015345577</v>
-      </c>
-      <c r="P16">
-        <v>0.05000075015345577</v>
-      </c>
-      <c r="Q16">
-        <v>0.9207221312073967</v>
-      </c>
-      <c r="R16">
-        <v>0.9207221312073967</v>
-      </c>
-      <c r="S16">
-        <v>0.008277987861267516</v>
-      </c>
-      <c r="T16">
-        <v>0.008277987861267516</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.562099</v>
+      </c>
+      <c r="I24">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J24">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.114006</v>
+      </c>
+      <c r="N24">
+        <v>0.342018</v>
+      </c>
+      <c r="O24">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P24">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q24">
+        <v>0.173368886198</v>
+      </c>
+      <c r="R24">
+        <v>1.560319975782</v>
+      </c>
+      <c r="S24">
+        <v>0.001186185334126742</v>
+      </c>
+      <c r="T24">
+        <v>0.001435655650874544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.562099</v>
+      </c>
+      <c r="I25">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J25">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.4000015</v>
+      </c>
+      <c r="N25">
+        <v>2.800003</v>
+      </c>
+      <c r="O25">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P25">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q25">
+        <v>2.128981814382833</v>
+      </c>
+      <c r="R25">
+        <v>12.773890886297</v>
+      </c>
+      <c r="S25">
+        <v>0.01456643726694595</v>
+      </c>
+      <c r="T25">
+        <v>0.01175329991233115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H26">
+        <v>6.310099</v>
+      </c>
+      <c r="I26">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J26">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0147745</v>
+      </c>
+      <c r="N26">
+        <v>0.029549</v>
+      </c>
+      <c r="O26">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P26">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q26">
+        <v>0.03107618589183333</v>
+      </c>
+      <c r="R26">
+        <v>0.186457115351</v>
+      </c>
+      <c r="S26">
+        <v>0.000212622441972603</v>
+      </c>
+      <c r="T26">
+        <v>0.0001715598181490115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H27">
+        <v>6.310099</v>
+      </c>
+      <c r="I27">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J27">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.243073</v>
+      </c>
+      <c r="N27">
+        <v>33.729219</v>
+      </c>
+      <c r="O27">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P27">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q27">
+        <v>23.648301231409</v>
+      </c>
+      <c r="R27">
+        <v>212.834711082681</v>
+      </c>
+      <c r="S27">
+        <v>0.1618010515778023</v>
+      </c>
+      <c r="T27">
+        <v>0.1958299325847975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H28">
+        <v>6.310099</v>
+      </c>
+      <c r="I28">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J28">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.131107</v>
+      </c>
+      <c r="O28">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P28">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q28">
+        <v>0.09192201662144445</v>
+      </c>
+      <c r="R28">
+        <v>0.8272981495930001</v>
+      </c>
+      <c r="S28">
+        <v>0.0006289280065812055</v>
+      </c>
+      <c r="T28">
+        <v>0.0007611998063576583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H29">
+        <v>6.310099</v>
+      </c>
+      <c r="I29">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J29">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.09611</v>
+      </c>
+      <c r="O29">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P29">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q29">
+        <v>0.06738484609888888</v>
+      </c>
+      <c r="R29">
+        <v>0.60646361489</v>
+      </c>
+      <c r="S29">
+        <v>0.0004610453348220893</v>
+      </c>
+      <c r="T29">
+        <v>0.0005580092091881787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H30">
+        <v>6.310099</v>
+      </c>
+      <c r="I30">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J30">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.114006</v>
+      </c>
+      <c r="N30">
+        <v>0.342018</v>
+      </c>
+      <c r="O30">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P30">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q30">
+        <v>0.239796382198</v>
+      </c>
+      <c r="R30">
+        <v>2.158167439782</v>
+      </c>
+      <c r="S30">
+        <v>0.001640680504892117</v>
+      </c>
+      <c r="T30">
+        <v>0.001985737110686947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H31">
+        <v>6.310099</v>
+      </c>
+      <c r="I31">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J31">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.4000015</v>
+      </c>
+      <c r="N31">
+        <v>2.800003</v>
+      </c>
+      <c r="O31">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P31">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q31">
+        <v>2.944716021716166</v>
+      </c>
+      <c r="R31">
+        <v>17.668296130297</v>
+      </c>
+      <c r="S31">
+        <v>0.02014766913907795</v>
+      </c>
+      <c r="T31">
+        <v>0.0162566586177768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.7184595</v>
+      </c>
+      <c r="H32">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J32">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0147745</v>
+      </c>
+      <c r="N32">
+        <v>0.029549</v>
+      </c>
+      <c r="O32">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P32">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q32">
+        <v>0.02538937988275</v>
+      </c>
+      <c r="R32">
+        <v>0.101557519531</v>
+      </c>
+      <c r="S32">
+        <v>0.0001737134656624334</v>
+      </c>
+      <c r="T32">
+        <v>9.344341485496222E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.7184595</v>
+      </c>
+      <c r="H33">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J33">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.243073</v>
+      </c>
+      <c r="N33">
+        <v>33.729219</v>
+      </c>
+      <c r="O33">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P33">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q33">
+        <v>19.3207656060435</v>
+      </c>
+      <c r="R33">
+        <v>115.924593636261</v>
+      </c>
+      <c r="S33">
+        <v>0.1321921672832063</v>
+      </c>
+      <c r="T33">
+        <v>0.1066626079986082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.7184595</v>
+      </c>
+      <c r="H34">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J34">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.131107</v>
+      </c>
+      <c r="O34">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P34">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q34">
+        <v>0.07510068988883335</v>
+      </c>
+      <c r="R34">
+        <v>0.4506041393330001</v>
+      </c>
+      <c r="S34">
+        <v>0.0005138369339651574</v>
+      </c>
+      <c r="T34">
+        <v>0.0004146023821919366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.7184595</v>
+      </c>
+      <c r="H35">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J35">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.09611</v>
+      </c>
+      <c r="O35">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P35">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q35">
+        <v>0.05505371418166667</v>
+      </c>
+      <c r="R35">
+        <v>0.3303222850900001</v>
+      </c>
+      <c r="S35">
+        <v>0.000376676056376786</v>
+      </c>
+      <c r="T35">
+        <v>0.0003039306440729101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.7184595</v>
+      </c>
+      <c r="H36">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J36">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.114006</v>
+      </c>
+      <c r="N36">
+        <v>0.342018</v>
+      </c>
+      <c r="O36">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P36">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q36">
+        <v>0.195914693757</v>
+      </c>
+      <c r="R36">
+        <v>1.175488162542</v>
+      </c>
+      <c r="S36">
+        <v>0.001340443153156546</v>
+      </c>
+      <c r="T36">
+        <v>0.001081570606851821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.7184595</v>
+      </c>
+      <c r="H37">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J37">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.4000015</v>
+      </c>
+      <c r="N37">
+        <v>2.800003</v>
+      </c>
+      <c r="O37">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P37">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q37">
+        <v>2.40584587768925</v>
+      </c>
+      <c r="R37">
+        <v>9.623383510757</v>
+      </c>
+      <c r="S37">
+        <v>0.01646073386562017</v>
+      </c>
+      <c r="T37">
+        <v>0.008854507493456253</v>
       </c>
     </row>
   </sheetData>
